--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC30.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
   <si>
     <t>Fecha:</t>
   </si>
@@ -534,15 +534,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Dibujar un cuadrado y su diagonal,  donde se comparen sus medidas.</t>
-  </si>
-  <si>
-    <t>Billete de 10000 pesos donde se resalta del recuadro blanco</t>
-  </si>
-  <si>
-    <t>Ubicación en la recta numerica de raiz cuadrada de 2 y raiz cuadrada de 3, a traves de la diagonal rectangulos</t>
-  </si>
-  <si>
     <t>IMG03</t>
   </si>
   <si>
@@ -552,7 +543,7 @@
     <t>IMG05</t>
   </si>
   <si>
-    <t>Pentagono regular.</t>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -2557,9 +2548,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2788,7 +2779,7 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="69" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,12 +2811,12 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>147</v>
@@ -2852,12 +2843,12 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>147</v>
@@ -2890,12 +2881,12 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="70" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="23"/>
